--- a/constellations.xlsx
+++ b/constellations.xlsx
@@ -3,15 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24004"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30CE024F-7EE0-44E9-A44E-47A75EEF7697}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69E6A0EE-7366-40C3-9B54-FC8DBD1D0145}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aries" sheetId="2" r:id="rId1"/>
     <sheet name="Cancer" sheetId="4" r:id="rId2"/>
-    <sheet name="Delphinus" sheetId="3" r:id="rId3"/>
-    <sheet name="Triangulum" sheetId="1" r:id="rId4"/>
+    <sheet name="Canes Venatici" sheetId="6" r:id="rId3"/>
+    <sheet name="Cassiopea" sheetId="7" r:id="rId4"/>
+    <sheet name="Coma Berenices" sheetId="5" r:id="rId5"/>
+    <sheet name="Delphinus" sheetId="3" r:id="rId6"/>
+    <sheet name="Triangulum" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="133">
   <si>
     <t>Name</t>
   </si>
@@ -668,6 +671,697 @@
   </si>
   <si>
     <t>iotacanc;deltacanc</t>
+  </si>
+  <si>
+    <t>Cor Caroli</t>
+  </si>
+  <si>
+    <t>alphavenatica</t>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 56</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 01.84</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>+38° 19′ 05.7</t>
+  </si>
+  <si>
+    <t>betavenatica</t>
+  </si>
+  <si>
+    <t>Canes Venatici</t>
+  </si>
+  <si>
+    <t>Beta CVn</t>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 33</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 45.09</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>+41° 21′ 24.4″</t>
+  </si>
+  <si>
+    <t>alpha Cas</t>
+  </si>
+  <si>
+    <t>alphacassiopea</t>
+  </si>
+  <si>
+    <r>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 40</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 30.39</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>+56° 32′ 14.7″</t>
+  </si>
+  <si>
+    <t>betacassiopea;gammacassiopea</t>
+  </si>
+  <si>
+    <t>Cassiopea</t>
+  </si>
+  <si>
+    <t>beta Cas</t>
+  </si>
+  <si>
+    <t>betacassiopea</t>
+  </si>
+  <si>
+    <r>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 09</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 10.09</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>+59° 09′ 00.8″</t>
+  </si>
+  <si>
+    <t>gamma Cas</t>
+  </si>
+  <si>
+    <t>gammacassiopea</t>
+  </si>
+  <si>
+    <r>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 56</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 42.50</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>+60° 43′ 00.3″</t>
+  </si>
+  <si>
+    <t>alphacassiopea;deltacassiopea</t>
+  </si>
+  <si>
+    <t>delta Cas</t>
+  </si>
+  <si>
+    <t>deltacassiopea</t>
+  </si>
+  <si>
+    <r>
+      <t>01</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 25</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 48.60</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>+60° 14′ 07.5″</t>
+  </si>
+  <si>
+    <t>gammacassiopea;epsiloncassiopea</t>
+  </si>
+  <si>
+    <t>epsilon Cas</t>
+  </si>
+  <si>
+    <t>epsiloncassiopea</t>
+  </si>
+  <si>
+    <r>
+      <t>01</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 54</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 23.68</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>+63° 40′ 12.5″</t>
+  </si>
+  <si>
+    <t>beta Com</t>
+  </si>
+  <si>
+    <t>betaberenices</t>
+  </si>
+  <si>
+    <r>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 11</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 52.92</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>+27° 52′ 33.7″</t>
+  </si>
+  <si>
+    <t>alphaberenices;gammaberenices</t>
+  </si>
+  <si>
+    <t>Coma Berenices</t>
+  </si>
+  <si>
+    <t>alpha Com</t>
+  </si>
+  <si>
+    <t>alphaberenices</t>
+  </si>
+  <si>
+    <r>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 09</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 59.55</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>+17° 31′ 44.8″</t>
+  </si>
+  <si>
+    <t>gamma Com</t>
+  </si>
+  <si>
+    <t>gammaberenices</t>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 26</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 56.33</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>+28° 16′ 07.0″</t>
   </si>
   <si>
     <t>Beta Del</t>
@@ -1190,6 +1884,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1217,7 +1912,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1238,6 +1933,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1782,13 +2478,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E9B903-880D-49F4-937D-27E3F932DA90}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
     <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1812,7 +2510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1832,7 +2530,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -1852,7 +2550,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>35</v>
       </c>
@@ -1918,6 +2616,329 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACE6237-2402-4D73-A7A6-B6CE247F6430}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C2772F-0296-4928-AC77-BB3F76939663}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF23AF19-BD39-4CF9-A21B-BE13B58D476D}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="E8" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E526E9C-E662-461B-9F1D-B2A13E478B09}">
   <dimension ref="A1:I15"/>
   <sheetViews>
@@ -1957,19 +2978,19 @@
     </row>
     <row r="2" spans="1:9" ht="30">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>30</v>
@@ -1980,19 +3001,19 @@
     </row>
     <row r="3" spans="1:9" ht="30">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>30</v>
@@ -2003,19 +3024,19 @@
     </row>
     <row r="4" spans="1:9" ht="30">
       <c r="A4" s="2" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>30</v>
@@ -2026,19 +3047,19 @@
     </row>
     <row r="5" spans="1:9" ht="30">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>30</v>
@@ -2049,19 +3070,19 @@
     </row>
     <row r="6" spans="1:9" ht="30">
       <c r="A6" s="2" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>30</v>
@@ -2174,7 +3195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -2212,62 +3233,62 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/constellations.xlsx
+++ b/constellations.xlsx
@@ -3,18 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24004"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69E6A0EE-7366-40C3-9B54-FC8DBD1D0145}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F158B1F-F5B6-4C2E-B5A6-659F9951960A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aries" sheetId="2" r:id="rId1"/>
-    <sheet name="Cancer" sheetId="4" r:id="rId2"/>
-    <sheet name="Canes Venatici" sheetId="6" r:id="rId3"/>
-    <sheet name="Cassiopea" sheetId="7" r:id="rId4"/>
-    <sheet name="Coma Berenices" sheetId="5" r:id="rId5"/>
-    <sheet name="Delphinus" sheetId="3" r:id="rId6"/>
-    <sheet name="Triangulum" sheetId="1" r:id="rId7"/>
+    <sheet name="Auriga" sheetId="8" r:id="rId2"/>
+    <sheet name="Cancer" sheetId="4" r:id="rId3"/>
+    <sheet name="Canes Venatici" sheetId="6" r:id="rId4"/>
+    <sheet name="Cassiopea" sheetId="7" r:id="rId5"/>
+    <sheet name="Coma Berenices" sheetId="5" r:id="rId6"/>
+    <sheet name="Delphinus" sheetId="3" r:id="rId7"/>
+    <sheet name="Indus" sheetId="12" r:id="rId8"/>
+    <sheet name="Libra" sheetId="9" r:id="rId9"/>
+    <sheet name="Mensa" sheetId="10" r:id="rId10"/>
+    <sheet name="Octans" sheetId="11" r:id="rId11"/>
+    <sheet name="Triangulum" sheetId="1" r:id="rId12"/>
+    <sheet name="Tucana" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
@@ -32,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="280">
   <si>
     <t>Name</t>
   </si>
@@ -329,6 +335,377 @@
     <t>+27° 15′ 38.8″</t>
   </si>
   <si>
+    <t>Capella</t>
+  </si>
+  <si>
+    <t>alphaauri</t>
+  </si>
+  <si>
+    <r>
+      <t>05</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 16</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 41.30</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>+45° 59′ 56.5″</t>
+  </si>
+  <si>
+    <t>betaauri;epsilonauri</t>
+  </si>
+  <si>
+    <t>Auriga</t>
+  </si>
+  <si>
+    <t>Beta Aur</t>
+  </si>
+  <si>
+    <t>betaauri</t>
+  </si>
+  <si>
+    <r>
+      <t>05</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 59</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 31.77</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>+44° 56′ 50.8″</t>
+  </si>
+  <si>
+    <t>alphaauri;thetaauri</t>
+  </si>
+  <si>
+    <t>Theta Aur</t>
+  </si>
+  <si>
+    <t>thetaauri</t>
+  </si>
+  <si>
+    <r>
+      <t>05</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 59</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 43.24</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>+37° 12′ 46.0″</t>
+  </si>
+  <si>
+    <t>betaauri;betatauri</t>
+  </si>
+  <si>
+    <t>Beta Tau</t>
+  </si>
+  <si>
+    <t>betatauri</t>
+  </si>
+  <si>
+    <t>5h 26m 17.51s</t>
+  </si>
+  <si>
+    <t>+28° 36′ 26.82″</t>
+  </si>
+  <si>
+    <t>iotaauri;thetaauri</t>
+  </si>
+  <si>
+    <t>Tauri</t>
+  </si>
+  <si>
+    <t>Iota Aur</t>
+  </si>
+  <si>
+    <t>iotaauri</t>
+  </si>
+  <si>
+    <r>
+      <t>04</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 56</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 59.62</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>+33° 09′ 58.1″</t>
+  </si>
+  <si>
+    <t>epsilonauri;betatauri</t>
+  </si>
+  <si>
+    <t>Epsilon Aur</t>
+  </si>
+  <si>
+    <t>epsilonauri</t>
+  </si>
+  <si>
+    <r>
+      <t>05</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 01</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 58.13</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>+43° 49′ 23.9″</t>
+  </si>
+  <si>
+    <t>alphaauri;iotaauri</t>
+  </si>
+  <si>
     <t>Beta Cnc</t>
   </si>
   <si>
@@ -1705,6 +2082,1083 @@
     <t>+15° 04′ 28.9″</t>
   </si>
   <si>
+    <t>Alpha Ind</t>
+  </si>
+  <si>
+    <t>alphaindus</t>
+  </si>
+  <si>
+    <r>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 37</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 33.99</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>−47° 17′ 30.0″</t>
+  </si>
+  <si>
+    <t>betaindus;thetaindus</t>
+  </si>
+  <si>
+    <t>Indus</t>
+  </si>
+  <si>
+    <t>Beta Ind</t>
+  </si>
+  <si>
+    <t>betaindus</t>
+  </si>
+  <si>
+    <r>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 54</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 48.58</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>−58° 27′ 14.7″</t>
+  </si>
+  <si>
+    <t>alphaindus;deltaindus</t>
+  </si>
+  <si>
+    <t>Theta Ind</t>
+  </si>
+  <si>
+    <t>thetaindus</t>
+  </si>
+  <si>
+    <r>
+      <t>21</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 19</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 51.88</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>−53° 26′ 57.4″</t>
+  </si>
+  <si>
+    <t>deltaindus;alphaindus</t>
+  </si>
+  <si>
+    <t>Delta Ind</t>
+  </si>
+  <si>
+    <t>deltaindus</t>
+  </si>
+  <si>
+    <r>
+      <t>21</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 57</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 55.03</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>−54° 59′ 33.2″</t>
+  </si>
+  <si>
+    <t>Beta Lib</t>
+  </si>
+  <si>
+    <t>betalibra</t>
+  </si>
+  <si>
+    <r>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 17</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 00.47</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>−09° 22′ 58.3</t>
+  </si>
+  <si>
+    <t>gammalibra;alphalibra</t>
+  </si>
+  <si>
+    <t>Libra</t>
+  </si>
+  <si>
+    <t>Alpha Lib</t>
+  </si>
+  <si>
+    <t>alphalibra</t>
+  </si>
+  <si>
+    <r>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 50</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 52.78</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>−16° 02′ 29.8″</t>
+  </si>
+  <si>
+    <t>betalibra;gammalibra</t>
+  </si>
+  <si>
+    <t>Sigma Lib</t>
+  </si>
+  <si>
+    <t>sigmalibra</t>
+  </si>
+  <si>
+    <t>15h 04m 04.26s</t>
+  </si>
+  <si>
+    <t>−25° 16′ 54.7″</t>
+  </si>
+  <si>
+    <t>Upsilon Lib</t>
+  </si>
+  <si>
+    <t>upsilonlibra</t>
+  </si>
+  <si>
+    <r>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 37</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 01.46</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>−28° 08′ 06.3″</t>
+  </si>
+  <si>
+    <t>taulibra;gammalibra</t>
+  </si>
+  <si>
+    <t>Tau Lib</t>
+  </si>
+  <si>
+    <t>taulibra</t>
+  </si>
+  <si>
+    <t>15h 38m 39.38s</t>
+  </si>
+  <si>
+    <t>−29° 46′ 39.7″</t>
+  </si>
+  <si>
+    <t>Gamma Lib</t>
+  </si>
+  <si>
+    <t>gammalibra</t>
+  </si>
+  <si>
+    <r>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 35</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 31.54</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>−14° 47′ 22.4″</t>
+  </si>
+  <si>
+    <t>alphalibra;betalibra</t>
+  </si>
+  <si>
+    <t>Alpha Men</t>
+  </si>
+  <si>
+    <t>alphamensa</t>
+  </si>
+  <si>
+    <r>
+      <t>06</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 14.20</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>−74° 45′ 09.1</t>
+  </si>
+  <si>
+    <t>gammamensa</t>
+  </si>
+  <si>
+    <t>Mensa</t>
+  </si>
+  <si>
+    <t>Gamma Men</t>
+  </si>
+  <si>
+    <r>
+      <t>05</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 31</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 52.66</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>−76° 20′ 30.0″</t>
+  </si>
+  <si>
+    <t>alphamensa;etamensa</t>
+  </si>
+  <si>
+    <t>Beta Men</t>
+  </si>
+  <si>
+    <t>betamensa</t>
+  </si>
+  <si>
+    <r>
+      <t>05</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 02</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 43.00</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>−71° 18′ 51.6″</t>
+  </si>
+  <si>
+    <t>etamensa</t>
+  </si>
+  <si>
+    <t>Eta Men</t>
+  </si>
+  <si>
+    <r>
+      <t>04</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 55</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 11.14</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>−74° 56′ 13.2″</t>
+  </si>
+  <si>
+    <t>betamensa;gammamensa</t>
+  </si>
+  <si>
+    <t>Nu Oct</t>
+  </si>
+  <si>
+    <t>nuoctans</t>
+  </si>
+  <si>
+    <r>
+      <t>21</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 41</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 28.47</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>−77° 23′ 22.1″</t>
+  </si>
+  <si>
+    <t>deltaoctans;betaoctans</t>
+  </si>
+  <si>
+    <t>Octans</t>
+  </si>
+  <si>
+    <t>Beta Oct</t>
+  </si>
+  <si>
+    <t>betaoctans</t>
+  </si>
+  <si>
+    <r>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 46</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 03.72</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>−81° 22′ 53.8″</t>
+  </si>
+  <si>
+    <t>nuoctans;deltaoctans</t>
+  </si>
+  <si>
+    <t>Delta Oct</t>
+  </si>
+  <si>
+    <t>deltaoctans</t>
+  </si>
+  <si>
+    <r>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 26</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 55.74</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>−83° 40′ 04.3″</t>
+  </si>
+  <si>
+    <t>nuoctans;betaoctans</t>
+  </si>
+  <si>
     <t>alpha Tri</t>
   </si>
   <si>
@@ -1861,6 +3315,429 @@
   </si>
   <si>
     <t>alphatriang;betatriang</t>
+  </si>
+  <si>
+    <t>Alpha Tuc</t>
+  </si>
+  <si>
+    <t>alphatucana</t>
+  </si>
+  <si>
+    <r>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 18</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 30.18</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>−60° 15′ 34.2″</t>
+  </si>
+  <si>
+    <t>gammatucana;deltatucana</t>
+  </si>
+  <si>
+    <t>Tucana</t>
+  </si>
+  <si>
+    <t>Gamma Tuc</t>
+  </si>
+  <si>
+    <t>gammatucana</t>
+  </si>
+  <si>
+    <r>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 17</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 25.81</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>−58° 14′ 09.3″</t>
+  </si>
+  <si>
+    <t>alphatucana;betatucana</t>
+  </si>
+  <si>
+    <t>Beta Tuc</t>
+  </si>
+  <si>
+    <t>betatucana</t>
+  </si>
+  <si>
+    <r>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 31</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 32.56</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>−62° 57′ 29.1″</t>
+  </si>
+  <si>
+    <t>gammatucana;zetatucana</t>
+  </si>
+  <si>
+    <t>Zeta Tuc</t>
+  </si>
+  <si>
+    <t>zetatucana</t>
+  </si>
+  <si>
+    <r>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 20</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 01.91</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>−64° 52′ 39.4″</t>
+  </si>
+  <si>
+    <t>epsilontucana;betatucana</t>
+  </si>
+  <si>
+    <t>Epsilon Tuc</t>
+  </si>
+  <si>
+    <t>epsilontucana</t>
+  </si>
+  <si>
+    <r>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 59</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 54.91</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>−65° 34′ 37.5″</t>
+  </si>
+  <si>
+    <t>zetatucana;deltatucana</t>
+  </si>
+  <si>
+    <t>Delta Tuc</t>
+  </si>
+  <si>
+    <t>deltatucana</t>
+  </si>
+  <si>
+    <r>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 27</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 19.87</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>−64° 57′ 59.0″</t>
+  </si>
+  <si>
+    <t>alphatucana;epsilontucana</t>
   </si>
 </sst>
 </file>
@@ -1912,7 +3789,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1934,6 +3811,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2251,7 +4129,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2474,7 +4352,664 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F651839F-607E-428A-8A7D-D1C3BAC88017}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B05E24-3CFF-48CF-B3EB-982B856A6AB9}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="14.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F6FCB4C-A706-418B-8C14-84B572201008}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E6" t="s">
+        <v>274</v>
+      </c>
+      <c r="F6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{833FC5FA-50DF-4F42-BE99-0B418AFB8C28}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E9B903-880D-49F4-937D-27E3F932DA90}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -2512,102 +5047,102 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2615,7 +5150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACE6237-2402-4D73-A7A6-B6CE247F6430}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -2651,42 +5186,42 @@
     </row>
     <row r="2" spans="1:6" ht="30">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2694,11 +5229,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C2772F-0296-4928-AC77-BB3F76939663}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -2731,102 +5266,102 @@
     </row>
     <row r="2" spans="1:6" ht="30">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2834,7 +5369,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF23AF19-BD39-4CF9-A21B-BE13B58D476D}">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -2872,62 +5407,62 @@
     </row>
     <row r="2" spans="1:6" ht="30">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2938,12 +5473,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E526E9C-E662-461B-9F1D-B2A13E478B09}">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F6"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2978,22 +5513,22 @@
     </row>
     <row r="2" spans="1:9" ht="30">
       <c r="A2" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -3001,22 +5536,22 @@
     </row>
     <row r="3" spans="1:9" ht="30">
       <c r="A3" s="2" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -3024,22 +5559,22 @@
     </row>
     <row r="4" spans="1:9" ht="30">
       <c r="A4" s="2" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -3047,22 +5582,22 @@
     </row>
     <row r="5" spans="1:9" ht="30">
       <c r="A5" s="2" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -3070,22 +5605,22 @@
     </row>
     <row r="6" spans="1:9" ht="30">
       <c r="A6" s="2" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -3195,100 +5730,285 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42763D3A-0E16-49C9-9BC0-68BAA76074CB}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="14.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="30">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" t="s">
-        <v>120</v>
+        <v>151</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B5C56E4-4726-4771-BF2D-2B9034D23413}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" t="s">
-        <v>126</v>
+        <v>176</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="E3" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="F3" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" t="s">
-        <v>131</v>
+        <v>181</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="E4" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="F4" t="s">
-        <v>122</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
